--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\TEMOA\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D344A-2C17-4DEE-8995-D8C2CC9F0B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDFD1D-D791-4380-8EB4-A0B8A20391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="849" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -1993,14 +1993,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2045,16 +2045,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A46" sqref="A28:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.86328125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="8"/>
+    <col min="1" max="1" width="26.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2580,11 +2580,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.73046875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -2622,9 +2622,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="32.1328125" customWidth="1"/>
+    <col min="1" max="2" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2721,7 +2721,7 @@
       <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="15" customWidth="1"/>
   </cols>
@@ -2760,9 +2760,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="6" width="13.73046875" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2798,12 +2798,12 @@
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="12.1328125" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" customWidth="1"/>
-    <col min="4" max="5" width="19.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2981,7 +2981,7 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3013,13 +3013,13 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="13.73046875" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="1" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3052,10 +3052,10 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1"/>
-    <col min="3" max="3" width="43.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3276,20 +3276,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
     <col min="2" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="4" customWidth="1"/>
-    <col min="8" max="38" width="5.86328125" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.1328125" style="4"/>
+    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
+    <col min="8" max="38" width="5.85546875" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1">
@@ -12400,17 +12400,17 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A35" sqref="A7:A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.46484375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="8"/>
+    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1">
@@ -12430,7 +12430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="15" t="s">
         <v>180</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25">
+    <row r="22" spans="1:11" ht="15">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25">
+    <row r="23" spans="1:11" ht="15">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25">
+    <row r="24" spans="1:11" ht="15">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25">
+    <row r="25" spans="1:11" ht="15">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11" ht="15">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="14.25">
+    <row r="27" spans="1:11" ht="15">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25">
+    <row r="28" spans="1:11" ht="15">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="14.25">
+    <row r="29" spans="1:11" ht="15">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
+    <row r="30" spans="1:11" ht="15">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25">
+    <row r="31" spans="1:11" ht="15">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25">
+    <row r="34" spans="1:4" ht="15">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -13129,16 +13129,16 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9.1328125" style="1"/>
-    <col min="9" max="9" width="19.59765625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="27.1328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.59765625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="27.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
@@ -13458,13 +13458,13 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" customWidth="1"/>
-    <col min="2" max="4" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.59765625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -13741,15 +13741,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="11.3984375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" style="4" customWidth="1"/>
-    <col min="7" max="38" width="6.1328125" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.1328125" style="4"/>
+    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
+    <col min="7" max="38" width="6.140625" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16027,13 +16027,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="21.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1"/>
-    <col min="4" max="4" width="65.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="65.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -16158,14 +16158,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.86328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="8" customWidth="1"/>
-    <col min="4" max="34" width="6.86328125" style="8" customWidth="1"/>
-    <col min="35" max="39" width="7.3984375" style="8" customWidth="1"/>
-    <col min="40" max="16384" width="9.1328125" style="8"/>
+    <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="8" customWidth="1"/>
+    <col min="4" max="34" width="6.85546875" style="8" customWidth="1"/>
+    <col min="35" max="39" width="7.42578125" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\OceanTech\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDFD1D-D791-4380-8EB4-A0B8A20391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8101A-14CD-41E2-BD36-825357BE12C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="Emissions_Calculations" sheetId="5" r:id="rId5"/>
     <sheet name="EmissionLimit" sheetId="8" r:id="rId6"/>
     <sheet name="CapacityFactor" sheetId="4" r:id="rId7"/>
-    <sheet name="StorageDuration" sheetId="7" r:id="rId8"/>
-    <sheet name="DiscountRate" sheetId="9" r:id="rId9"/>
-    <sheet name="CapacityCredit" sheetId="10" r:id="rId10"/>
-    <sheet name="PlanningReserveMargin" sheetId="12" r:id="rId11"/>
-    <sheet name="tech_curtailment" sheetId="13" r:id="rId12"/>
-    <sheet name="MaxCapacity" sheetId="17" r:id="rId13"/>
-    <sheet name="MinCapacity" sheetId="18" r:id="rId14"/>
-    <sheet name="MaxActivity" sheetId="20" r:id="rId15"/>
-    <sheet name="MinActivity" sheetId="19" r:id="rId16"/>
-    <sheet name="MaxResource" sheetId="16" r:id="rId17"/>
+    <sheet name="OceanCF" sheetId="21" r:id="rId8"/>
+    <sheet name="StorageDuration" sheetId="7" r:id="rId9"/>
+    <sheet name="DiscountRate" sheetId="9" r:id="rId10"/>
+    <sheet name="CapacityCredit" sheetId="10" r:id="rId11"/>
+    <sheet name="PlanningReserveMargin" sheetId="12" r:id="rId12"/>
+    <sheet name="tech_curtailment" sheetId="13" r:id="rId13"/>
+    <sheet name="MaxCapacity" sheetId="17" r:id="rId14"/>
+    <sheet name="MinCapacity" sheetId="18" r:id="rId15"/>
+    <sheet name="MaxActivity" sheetId="20" r:id="rId16"/>
+    <sheet name="MinActivity" sheetId="19" r:id="rId17"/>
+    <sheet name="MaxResource" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="260">
   <si>
     <t>p</t>
   </si>
@@ -727,6 +728,111 @@
   </si>
   <si>
     <t>WND_WT_EXISTING</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Input for Ocean Current</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>OCEAN</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>OCEAN_CURRENT_NEW</t>
   </si>
 </sst>
 </file>
@@ -739,7 +845,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +1044,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1342,7 +1453,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1380,6 +1491,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="303">
@@ -1993,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2042,11 +2159,3779 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
+  <dimension ref="A1:AH36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="8" customWidth="1"/>
+    <col min="4" max="34" width="6.85546875" style="8" customWidth="1"/>
+    <col min="35" max="39" width="7.42578125" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>6.3483644739827622E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>6.2454206744882147E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6.1516326015163603E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>6.0670002550671967E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5.9915236351407233E-2</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6.3483644739827622E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6.2454206744882147E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6.1516326015163603E-2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>6.0670002550671967E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5.9915236351407233E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6.3483644739827622E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>6.2454206744882147E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>6.1516326015163603E-2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6.0670002550671967E-2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5.9915236351407233E-2</v>
+      </c>
+      <c r="N11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5.6412210360996473E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5.6412210360996473E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5.6412210360996473E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5.6412210360996473E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.4717176867835497E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5.4717176867835497E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4.8953703285046599E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <v>5.017114625137091E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5.1377711004503855E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5.2573397544445441E-2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="S12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="T12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="V12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="W12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="X12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>5.3758205871195661E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7.1222518716689817E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.7488370692059652E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>6.3262373937746669E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6.3614945854595317E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>6.398782538949381E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>6.398782538949381E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5.0562860072941751E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5.1765601994873678E-2</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5.295762821876851E-2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>5.4138938744626219E-2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="O19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="P19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="R19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="S19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="T19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="U19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="V19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="W19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="X19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AE19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>5.5309533572446834E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L23" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L25" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M25" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="H26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="I26" s="8">
+        <v>6.5421499999999994E-2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>6.3967868046929291E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>6.2624104812130876E-2</v>
+      </c>
+      <c r="L26" s="8">
+        <v>6.1390210295604764E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <v>6.0266184497350932E-2</v>
+      </c>
+      <c r="N26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L27" s="8">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M27" s="8">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5.8074927246929288E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>5.8311333612130881E-2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>5.8586319095604758E-2</v>
+      </c>
+      <c r="M28" s="8">
+        <v>5.8899883697350941E-2</v>
+      </c>
+      <c r="N28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="O28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="P28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="S28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="T28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="U28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="V28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="W28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="X28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AB28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AE28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>5.9252027417369402E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="I29" s="8">
+        <v>6.6257919999999998E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>6.6970816000000002E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>6.7683712000000007E-2</v>
+      </c>
+      <c r="L29" s="8">
+        <v>6.8396608000000012E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <v>6.9109504000000002E-2</v>
+      </c>
+      <c r="N29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="O29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="P29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="R29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="S29" s="8">
+        <v>6.9822400000000007E-2</v>
+      </c>
+      <c r="T29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="U29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="V29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="W29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="X29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AD29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AE29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AF29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>5.7877100000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5.6698294578795688E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5.6698294578795688E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5.6698294578795688E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5.6698294578795688E-2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5.4975290877219488E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5.4975290877219488E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4.9100229521914382E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>5.0319722897432619E-2</v>
+      </c>
+      <c r="L30" s="8">
+        <v>5.1528342019589127E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <v>5.27260868883839E-2</v>
+      </c>
+      <c r="N30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="O30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="P30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="R30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="S30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="T30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="U30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="V30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="W30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="X30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>5.3912957503816944E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AB32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5.2714068831298061E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5.2714068913427573E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.2714067615884028E-2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5.2714065265614916E-2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>5.1333716316218116E-2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>5.1333716316218116E-2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4.6796974915771457E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <v>4.7954991225244319E-2</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4.910151958532237E-2</v>
+      </c>
+      <c r="M33" s="8">
+        <v>5.0236559996005625E-2</v>
+      </c>
+      <c r="N33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="O33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="P33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="S33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="T33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="U33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="V33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="W33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="X33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AE33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+      <c r="AH33" s="8">
+        <v>5.1360112457294049E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="I34" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5.0517526083259712E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>5.1880573743356126E-2</v>
+      </c>
+      <c r="L34" s="8">
+        <v>5.3230604845311058E-2</v>
+      </c>
+      <c r="M34" s="8">
+        <v>5.4567619389124508E-2</v>
+      </c>
+      <c r="N34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="O34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="P34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="S34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="T34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="U34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="V34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="W34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="X34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AE34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>5.4287470296592102E-2</v>
+      </c>
+      <c r="J35" s="8">
+        <v>5.0517526083259712E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>5.1880573743356126E-2</v>
+      </c>
+      <c r="L35" s="8">
+        <v>5.3230604845311058E-2</v>
+      </c>
+      <c r="M35" s="8">
+        <v>5.4567619389124508E-2</v>
+      </c>
+      <c r="N35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="O35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="P35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="R35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="S35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="T35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="U35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="V35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="W35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="X35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>5.5891617374796462E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="15">
+      <c r="A36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0.113</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>0.113</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH35">
+    <sortCondition ref="B35"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A28:A46"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -2563,6 +6448,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
     <sortCondition ref="A2:A46"/>
@@ -2572,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0904B615-50FA-4F82-9A22-035234CBED38}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2614,12 +6507,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FBD8C2-7885-48CF-A6D2-8373F214E00B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,13 +6600,18 @@
         <v>114</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2752,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3C4599-8E56-4B8C-B62A-B58663B6C1E8}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2790,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2973,7 +6871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEEE4BE-FD88-49A2-A041-525121977217}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3008,12 +6906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F4522F-FAB8-47C5-AC73-9230BD225687}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3046,10 +6944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345D6D4-C1C5-41B3-9FA9-983E075A149F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3267,6 +7165,17 @@
         <v>171</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3274,10 +7183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -12382,6 +16291,116 @@
         <v>1</v>
       </c>
       <c r="AL78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" ht="15">
+      <c r="A79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1</v>
+      </c>
+      <c r="R79" s="4">
+        <v>1</v>
+      </c>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+      <c r="T79" s="4">
+        <v>1</v>
+      </c>
+      <c r="U79" s="4">
+        <v>1</v>
+      </c>
+      <c r="V79" s="4">
+        <v>1</v>
+      </c>
+      <c r="W79" s="4">
+        <v>1</v>
+      </c>
+      <c r="X79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="4">
         <v>1</v>
       </c>
     </row>
@@ -13455,7 +17474,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13735,10 +17754,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB57A83-05BB-4B3C-8DF8-E9284C1E7CDB}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -16012,6 +20031,116 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
+    <row r="21" spans="1:37" ht="15">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16020,6 +20149,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E259C96D-F4BA-4EFD-8431-D283983C52B8}">
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.48835677299755198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.48835677299755198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.48835677299755198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.48737216994442001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.48737216994442001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.48737216994442001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.47021979211015502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.47021979211015502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.47021979211015502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.45175895829401602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.45175895829401602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.45175895829401602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.449755758612434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.449755758612434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.449755758612434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.45145410627221599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.45145410627221599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.45145410627221599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.46388789402943797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.46388789402943797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.46388789402943797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.48280745815607801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.48280745815607801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.48280745815607801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.44087920159256799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.44087920159256799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.44087920159256799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.44202561135184398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.44202561135184398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.44202561135184398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.43686733945779999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.43686733945779999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.43686733945779999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.428552854492318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.428552854492318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.428552854492318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.41836534336289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.41836534336289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.41836534336289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.40914076024676999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.40914076024676999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.40914076024676999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.408458135733969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.408458135733969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.408458135733969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.42325217689991201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.42325217689991201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.42325217689991201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.59727392194266204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.59727392194266204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.59727392194266204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.61041383881935396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.61041383881935396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.61041383881935396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.60476015264804095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.60476015264804095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.60476015264804095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0.58676538556776303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="17">
+        <v>0.58676538556776303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="17">
+        <v>0.58676538556776303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" s="17">
+        <v>0.56861168754703395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="17">
+        <v>0.56861168754703395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0.56861168754703395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0.54776333038110803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="17">
+        <v>0.54776333038110803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.54776333038110803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0.54886579109619904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0.54886579109619904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0.54886579109619904</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="17">
+        <v>0.56688715455725303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0.56688715455725303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.56688715455725303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="17">
+        <v>0.54481573099277802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="17">
+        <v>0.54481573099277802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="17">
+        <v>0.54481573099277802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0.54873021897426599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="17">
+        <v>0.54873021897426599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0.54873021897426599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="17">
+        <v>0.53997095823644503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0.53997095823644503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0.53997095823644503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0.52866485691171305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="17">
+        <v>0.52866485691171305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0.52866485691171305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0.51945165360291301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="17">
+        <v>0.51945165360291301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="17">
+        <v>0.51945165360291301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="17">
+        <v>0.50818456029463399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0.50818456029463399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0.50818456029463399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0.51144520120801895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0.51144520120801895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0.51144520120801895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0.52230587265278805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0.52230587265278805</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0.52230587265278805</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9C1FD3-1933-4825-94FA-30ED0724E508}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -16148,3671 +21361,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="8" customWidth="1"/>
-    <col min="4" max="34" width="6.85546875" style="8" customWidth="1"/>
-    <col min="35" max="39" width="7.42578125" style="8" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2021</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2022</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2023</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2024</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2025</v>
-      </c>
-      <c r="J1" s="3">
-        <v>2026</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2027</v>
-      </c>
-      <c r="L1" s="3">
-        <v>2028</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2029</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2030</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="R1" s="3">
-        <v>2034</v>
-      </c>
-      <c r="S1" s="3">
-        <v>2035</v>
-      </c>
-      <c r="T1" s="3">
-        <v>2036</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2037</v>
-      </c>
-      <c r="V1" s="3">
-        <v>2038</v>
-      </c>
-      <c r="W1" s="3">
-        <v>2039</v>
-      </c>
-      <c r="X1" s="3">
-        <v>2040</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>2041</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>2042</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>2043</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>2044</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>2045</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>2046</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>2047</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>2048</v>
-      </c>
-      <c r="AG1" s="3">
-        <v>2049</v>
-      </c>
-      <c r="AH1" s="3">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="U2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="V2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="U3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="V3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="U4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="V4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="S5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="U5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="V5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="X5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K6" s="8">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L6" s="8">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M6" s="8">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L7" s="8">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M7" s="8">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I9" s="8">
-        <v>6.3483644739827622E-2</v>
-      </c>
-      <c r="J9" s="8">
-        <v>6.2454206744882147E-2</v>
-      </c>
-      <c r="K9" s="8">
-        <v>6.1516326015163603E-2</v>
-      </c>
-      <c r="L9" s="8">
-        <v>6.0670002550671967E-2</v>
-      </c>
-      <c r="M9" s="8">
-        <v>5.9915236351407233E-2</v>
-      </c>
-      <c r="N9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6.3483644739827622E-2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>6.2454206744882147E-2</v>
-      </c>
-      <c r="K10" s="8">
-        <v>6.1516326015163603E-2</v>
-      </c>
-      <c r="L10" s="8">
-        <v>6.0670002550671967E-2</v>
-      </c>
-      <c r="M10" s="8">
-        <v>5.9915236351407233E-2</v>
-      </c>
-      <c r="N10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>6.3483644739827622E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6.2454206744882147E-2</v>
-      </c>
-      <c r="K11" s="8">
-        <v>6.1516326015163603E-2</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6.0670002550671967E-2</v>
-      </c>
-      <c r="M11" s="8">
-        <v>5.9915236351407233E-2</v>
-      </c>
-      <c r="N11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="8">
-        <v>5.6412210360996473E-2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>5.6412210360996473E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <v>5.6412210360996473E-2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>5.6412210360996473E-2</v>
-      </c>
-      <c r="H12" s="8">
-        <v>5.4717176867835497E-2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>5.4717176867835497E-2</v>
-      </c>
-      <c r="J12" s="8">
-        <v>4.8953703285046599E-2</v>
-      </c>
-      <c r="K12" s="8">
-        <v>5.017114625137091E-2</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5.1377711004503855E-2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>5.2573397544445441E-2</v>
-      </c>
-      <c r="N12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="O12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="P12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="R12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="S12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="T12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="U12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="V12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="W12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="X12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>5.3758205871195661E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG16" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH16" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG17" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH17" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG18" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH18" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7.1222518716689817E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>6.7488370692059652E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>6.3262373937746669E-2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>6.3614945854595317E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>6.398782538949381E-2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>6.398782538949381E-2</v>
-      </c>
-      <c r="J19" s="8">
-        <v>5.0562860072941751E-2</v>
-      </c>
-      <c r="K19" s="8">
-        <v>5.1765601994873678E-2</v>
-      </c>
-      <c r="L19" s="8">
-        <v>5.295762821876851E-2</v>
-      </c>
-      <c r="M19" s="8">
-        <v>5.4138938744626219E-2</v>
-      </c>
-      <c r="N19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="O19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="P19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="R19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="S19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="T19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="U19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="V19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="W19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="X19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AD19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AE19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AG19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-      <c r="AH19" s="8">
-        <v>5.5309533572446834E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I20" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J20" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K20" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L20" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M20" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH20" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I21" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K21" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L21" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M21" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH21" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J22" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K22" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L22" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M22" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH22" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J23" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K23" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L23" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M23" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH23" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J24" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K24" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L24" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M24" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH24" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I25" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J25" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K25" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L25" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M25" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH25" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="E26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="F26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="G26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="H26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="I26" s="8">
-        <v>6.5421499999999994E-2</v>
-      </c>
-      <c r="J26" s="8">
-        <v>6.3967868046929291E-2</v>
-      </c>
-      <c r="K26" s="8">
-        <v>6.2624104812130876E-2</v>
-      </c>
-      <c r="L26" s="8">
-        <v>6.1390210295604764E-2</v>
-      </c>
-      <c r="M26" s="8">
-        <v>6.0266184497350932E-2</v>
-      </c>
-      <c r="N26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH26" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I27" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J27" s="8">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K27" s="8">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L27" s="8">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M27" s="8">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH27" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="F28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="H28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="I28" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="J28" s="8">
-        <v>5.8074927246929288E-2</v>
-      </c>
-      <c r="K28" s="8">
-        <v>5.8311333612130881E-2</v>
-      </c>
-      <c r="L28" s="8">
-        <v>5.8586319095604758E-2</v>
-      </c>
-      <c r="M28" s="8">
-        <v>5.8899883697350941E-2</v>
-      </c>
-      <c r="N28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="O28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="P28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="R28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="S28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="T28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="U28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="V28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="W28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="X28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-      <c r="AH28" s="8">
-        <v>5.9252027417369402E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="F29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="G29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="H29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="I29" s="8">
-        <v>6.6257919999999998E-2</v>
-      </c>
-      <c r="J29" s="8">
-        <v>6.6970816000000002E-2</v>
-      </c>
-      <c r="K29" s="8">
-        <v>6.7683712000000007E-2</v>
-      </c>
-      <c r="L29" s="8">
-        <v>6.8396608000000012E-2</v>
-      </c>
-      <c r="M29" s="8">
-        <v>6.9109504000000002E-2</v>
-      </c>
-      <c r="N29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="O29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="P29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="R29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="S29" s="8">
-        <v>6.9822400000000007E-2</v>
-      </c>
-      <c r="T29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="U29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="V29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="W29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="X29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="Y29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AD29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AE29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AF29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AG29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-      <c r="AH29" s="8">
-        <v>5.7877100000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5.6698294578795688E-2</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5.6698294578795688E-2</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5.6698294578795688E-2</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5.6698294578795688E-2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>5.4975290877219488E-2</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5.4975290877219488E-2</v>
-      </c>
-      <c r="J30" s="8">
-        <v>4.9100229521914382E-2</v>
-      </c>
-      <c r="K30" s="8">
-        <v>5.0319722897432619E-2</v>
-      </c>
-      <c r="L30" s="8">
-        <v>5.1528342019589127E-2</v>
-      </c>
-      <c r="M30" s="8">
-        <v>5.27260868883839E-2</v>
-      </c>
-      <c r="N30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="O30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="P30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="R30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="S30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="T30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="U30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="V30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="W30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="X30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AD30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AE30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AF30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-      <c r="AH30" s="8">
-        <v>5.3912957503816944E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG31" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH31" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="W32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AE32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AF32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AH32" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="8">
-        <v>5.2714068831298061E-2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>5.2714068913427573E-2</v>
-      </c>
-      <c r="F33" s="8">
-        <v>5.2714067615884028E-2</v>
-      </c>
-      <c r="G33" s="8">
-        <v>5.2714065265614916E-2</v>
-      </c>
-      <c r="H33" s="8">
-        <v>5.1333716316218116E-2</v>
-      </c>
-      <c r="I33" s="8">
-        <v>5.1333716316218116E-2</v>
-      </c>
-      <c r="J33" s="8">
-        <v>4.6796974915771457E-2</v>
-      </c>
-      <c r="K33" s="8">
-        <v>4.7954991225244319E-2</v>
-      </c>
-      <c r="L33" s="8">
-        <v>4.910151958532237E-2</v>
-      </c>
-      <c r="M33" s="8">
-        <v>5.0236559996005625E-2</v>
-      </c>
-      <c r="N33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="O33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="P33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="R33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="S33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="T33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="U33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="V33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="W33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="X33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AA33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AB33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AC33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AD33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AE33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AF33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AG33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-      <c r="AH33" s="8">
-        <v>5.1360112457294049E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="E34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="F34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="G34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="H34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="I34" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="J34" s="8">
-        <v>5.0517526083259712E-2</v>
-      </c>
-      <c r="K34" s="8">
-        <v>5.1880573743356126E-2</v>
-      </c>
-      <c r="L34" s="8">
-        <v>5.3230604845311058E-2</v>
-      </c>
-      <c r="M34" s="8">
-        <v>5.4567619389124508E-2</v>
-      </c>
-      <c r="N34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="O34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="P34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="R34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="S34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="T34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="U34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="V34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="W34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="X34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AB34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AC34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AD34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AE34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AF34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AG34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AH34" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="E35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="F35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="G35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="I35" s="8">
-        <v>5.4287470296592102E-2</v>
-      </c>
-      <c r="J35" s="8">
-        <v>5.0517526083259712E-2</v>
-      </c>
-      <c r="K35" s="8">
-        <v>5.1880573743356126E-2</v>
-      </c>
-      <c r="L35" s="8">
-        <v>5.3230604845311058E-2</v>
-      </c>
-      <c r="M35" s="8">
-        <v>5.4567619389124508E-2</v>
-      </c>
-      <c r="N35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="O35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="P35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="R35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="S35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="T35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="U35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="V35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="W35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="X35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AC35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AD35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AE35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AF35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AG35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-      <c r="AH35" s="8">
-        <v>5.5891617374796462E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH35">
-    <sortCondition ref="B35"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EDFD1D-D791-4380-8EB4-A0B8A20391FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266D6FB-BE29-43D1-A0D4-D8984361B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="849" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -1997,10 +1997,10 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2049,12 +2049,12 @@
       <selection activeCell="A46" sqref="A28:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="26.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47.86328125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2580,11 +2580,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="42.73046875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1">
@@ -2622,9 +2622,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="2" width="32.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2721,7 +2721,7 @@
       <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="7" width="15" customWidth="1"/>
   </cols>
@@ -2760,9 +2760,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2798,12 +2798,12 @@
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" customWidth="1"/>
+    <col min="4" max="5" width="19.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2981,7 +2981,7 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3016,10 +3016,10 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="4" width="13.73046875" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3052,10 +3052,10 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="3" max="3" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3280,16 +3280,16 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="10" style="4" customWidth="1"/>
     <col min="2" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="4" customWidth="1"/>
-    <col min="8" max="38" width="5.85546875" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="32.265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" style="4" customWidth="1"/>
+    <col min="8" max="38" width="5.86328125" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1">
@@ -12403,14 +12403,14 @@
       <selection activeCell="A35" sqref="A7:A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="28.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1">
@@ -12430,7 +12430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="14.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="15" t="s">
         <v>180</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" ht="14.25">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" ht="14.25">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="14.25">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="14.25">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11" ht="14.25">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="14.25">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="14.25">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" ht="14.25">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" ht="14.25">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" ht="14.25">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="14.25">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="14.25">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -12888,7 +12888,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:11" ht="14.25">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15">
+    <row r="30" spans="1:11" ht="14.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15">
+    <row r="31" spans="1:11" ht="14.25">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15">
+    <row r="32" spans="1:11" ht="14.25">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -13129,16 +13129,16 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="27.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="8" width="9.1328125" style="1"/>
+    <col min="9" max="9" width="19.59765625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="27.1328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
@@ -13458,13 +13458,13 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="4" width="12.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.59765625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -13741,15 +13741,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="11.3984375" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="38" width="6.140625" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="21.265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" style="4" customWidth="1"/>
+    <col min="7" max="38" width="6.1328125" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16027,13 +16027,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="65.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="21.265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="65.59765625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
@@ -16158,14 +16158,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="8" customWidth="1"/>
-    <col min="4" max="34" width="6.85546875" style="8" customWidth="1"/>
-    <col min="35" max="39" width="7.42578125" style="8" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="8" customWidth="1"/>
+    <col min="4" max="34" width="6.86328125" style="8" customWidth="1"/>
+    <col min="35" max="39" width="7.3984375" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="9.1328125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="3" customFormat="1">

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09BEFC7-5321-4B87-A7A4-539062188E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B53CBF-4F92-4C77-8AED-E840465149F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="849" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="849" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="MaxActivity" sheetId="20" r:id="rId16"/>
     <sheet name="MinActivity" sheetId="19" r:id="rId17"/>
     <sheet name="MaxResource" sheetId="16" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="363">
   <si>
     <t>p</t>
   </si>
@@ -956,19 +955,10 @@
     <t>GENERAL_CO2_CAP</t>
   </si>
   <si>
-    <t>ENERGY_INTERCHANGE</t>
-  </si>
-  <si>
-    <t>Interchange of Energy in/out of NC</t>
-  </si>
-  <si>
     <t>Tech Used to Represent Other Options For CO2 Capture</t>
   </si>
   <si>
     <t>Convert At CO2 to Captured CO2</t>
-  </si>
-  <si>
-    <t>Need to model this. What is the emission on imports</t>
   </si>
   <si>
     <t>ATB 2022 C6 Tech</t>
@@ -1122,6 +1112,42 @@
   </si>
   <si>
     <t>PJ/PJ</t>
+  </si>
+  <si>
+    <t>Assume Capacity Credit of NG Plants (Enforced on Contracts)</t>
+  </si>
+  <si>
+    <t>10.25% of Demand from EIA NC Summary Statistics</t>
+  </si>
+  <si>
+    <t>Determined from Simulation of the Model (&lt;2023)</t>
+  </si>
+  <si>
+    <t>Max growth of 0.82% Year (Terminal load growth) from 2023</t>
+  </si>
+  <si>
+    <t>Losses are accounted later on Transmission Regional</t>
+  </si>
+  <si>
+    <t>dummy- This tech has no capital cost</t>
+  </si>
+  <si>
+    <t>Emissions here are based on forecasts from EIA-AEO23, these emissions are assigned using the python code and import Excel 1 table as they are period dependent</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S1</t>
+  </si>
+  <si>
+    <t>ENERGY_IMPORT_S2</t>
+  </si>
+  <si>
+    <t>ELC_IMP</t>
+  </si>
+  <si>
+    <t>Intermediary imput for the energy import (Used to help account for emissions changing with the period)</t>
+  </si>
+  <si>
+    <t>10.25% of Demand from EIA NC Summary Statistics - At Least 50% of this value</t>
   </si>
 </sst>
 </file>
@@ -3094,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BDD85-BE5C-43DC-B5E7-A7EA8EDFC2F3}">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -6854,12 +6880,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" ht="15">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>298</v>
+      <c r="B37" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>128</v>
@@ -6963,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>128</v>
@@ -7067,7 +7093,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>128</v>
@@ -7171,7 +7197,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>128</v>
@@ -7275,7 +7301,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>128</v>
@@ -7379,7 +7405,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>128</v>
@@ -7483,7 +7509,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>128</v>
@@ -7586,104 +7612,104 @@
       <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="E44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="F44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="G44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="H44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="I44" s="6">
-        <v>0.05</v>
+        <v>6.5421499999999994E-2</v>
       </c>
       <c r="J44" s="6">
-        <v>0.05</v>
+        <v>6.3967868046929291E-2</v>
       </c>
       <c r="K44" s="6">
-        <v>0.05</v>
+        <v>6.2624104812130876E-2</v>
       </c>
       <c r="L44" s="6">
-        <v>0.05</v>
+        <v>6.1390210295604764E-2</v>
       </c>
       <c r="M44" s="6">
-        <v>0.05</v>
+        <v>6.0266184497350932E-2</v>
       </c>
       <c r="N44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="O44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="P44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Q44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="R44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="S44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="T44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="U44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="V44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="W44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="X44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Y44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="Z44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AA44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AB44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AC44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AD44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AE44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AF44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AG44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
       <c r="AH44" s="6">
-        <v>0.05</v>
+        <v>5.9252027417369402E-2</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="15">
@@ -7691,10 +7717,10 @@
         <v>6</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D45" s="6">
         <v>6.5421499999999994E-2</v>
@@ -7795,10 +7821,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D46" s="6">
         <v>6.5421499999999994E-2</v>
@@ -7899,10 +7925,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D47" s="6">
         <v>6.5421499999999994E-2</v>
@@ -8003,10 +8029,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D48" s="6">
         <v>6.5421499999999994E-2</v>
@@ -8107,10 +8133,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D49" s="6">
         <v>6.5421499999999994E-2</v>
@@ -8128,19 +8154,19 @@
         <v>6.5421499999999994E-2</v>
       </c>
       <c r="I49" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>6.3483644739827622E-2</v>
       </c>
       <c r="J49" s="6">
-        <v>6.3967868046929291E-2</v>
+        <v>6.2454206744882147E-2</v>
       </c>
       <c r="K49" s="6">
-        <v>6.2624104812130876E-2</v>
+        <v>6.1516326015163603E-2</v>
       </c>
       <c r="L49" s="6">
-        <v>6.1390210295604764E-2</v>
+        <v>6.0670002550671967E-2</v>
       </c>
       <c r="M49" s="6">
-        <v>6.0266184497350932E-2</v>
+        <v>5.9915236351407233E-2</v>
       </c>
       <c r="N49" s="6">
         <v>5.9252027417369402E-2</v>
@@ -8211,10 +8237,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D50" s="6">
         <v>6.5421499999999994E-2</v>
@@ -8310,108 +8336,212 @@
         <v>5.9252027417369402E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15">
+    <row r="51" spans="1:34">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>317</v>
+      <c r="B51" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D51" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E51" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F51" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G51" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H51" s="6">
-        <v>6.5421499999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I51" s="6">
-        <v>6.3483644739827622E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J51" s="6">
-        <v>6.2454206744882147E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K51" s="6">
-        <v>6.1516326015163603E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L51" s="6">
-        <v>6.0670002550671967E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M51" s="6">
-        <v>5.9915236351407233E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="X51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Y51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Z51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AA51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AB51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AC51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AD51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AE51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AF51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AG51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AH51" s="6">
-        <v>5.9252027417369402E-2</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="T52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="U52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="V52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="W52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AA52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AE52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AF52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AH52" s="6">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -8425,10 +8555,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41267312-A157-4F65-86B7-C35DBAD3B2EE}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -8932,6 +9062,28 @@
       </c>
       <c r="C45" s="6" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -9088,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA9BB2C-9F9E-4D6B-AAF2-83D7B122A42E}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD185"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9255,7 +9407,7 @@
         <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -9275,7 +9427,7 @@
         <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9295,7 +9447,7 @@
         <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -9315,7 +9467,7 @@
         <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9335,7 +9487,7 @@
         <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9355,7 +9507,7 @@
         <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9375,7 +9527,7 @@
         <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9395,7 +9547,7 @@
         <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9415,7 +9567,7 @@
         <v>282</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9435,7 +9587,7 @@
         <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9455,7 +9607,7 @@
         <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9475,7 +9627,7 @@
         <v>282</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9495,7 +9647,7 @@
         <v>282</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9515,7 +9667,7 @@
         <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9535,7 +9687,7 @@
         <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9555,7 +9707,7 @@
         <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9575,7 +9727,7 @@
         <v>282</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9595,7 +9747,7 @@
         <v>282</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9615,7 +9767,7 @@
         <v>282</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9635,7 +9787,7 @@
         <v>282</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9655,7 +9807,7 @@
         <v>282</v>
       </c>
       <c r="F29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9666,7 +9818,7 @@
         <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -9675,7 +9827,7 @@
         <v>282</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9686,16 +9838,17 @@
         <v>2025</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D31">
+        <f>D30*1.0082^(B31-B30)</f>
         <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>282</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9706,16 +9859,17 @@
         <v>2030</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D32">
+        <f t="shared" ref="D32:D36" si="0">D31*1.0082^(B32-B31)</f>
         <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9726,16 +9880,17 @@
         <v>2035</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>282</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9746,16 +9901,17 @@
         <v>2040</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9766,16 +9922,17 @@
         <v>2045</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>282</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9786,16 +9943,17 @@
         <v>2050</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>282</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9806,16 +9964,16 @@
         <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="E37" t="s">
         <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9826,16 +9984,17 @@
         <v>2025</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <f>D37*1.0082^(B38-B37)</f>
+        <v>1.8601350491999999</v>
       </c>
       <c r="E38" t="s">
         <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9846,16 +10005,17 @@
         <v>2030</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <f t="shared" ref="D39:D43" si="1">D38*1.0082^(B39-B38)</f>
+        <v>1.937661639333039</v>
       </c>
       <c r="E39" t="s">
         <v>282</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9866,16 +10026,17 @@
         <v>2035</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.0184193777529948</v>
       </c>
       <c r="E40" t="s">
         <v>282</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9886,16 +10047,17 @@
         <v>2040</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1025429320524203</v>
       </c>
       <c r="E41" t="s">
         <v>282</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9906,16 +10068,17 @@
         <v>2045</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.1901725824912153</v>
       </c>
       <c r="E42" t="s">
         <v>282</v>
       </c>
       <c r="F42" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9926,16 +10089,17 @@
         <v>2050</v>
       </c>
       <c r="C43" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.2814544559210193</v>
       </c>
       <c r="E43" t="s">
         <v>282</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9946,16 +10110,16 @@
         <v>2023</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
+        <v>358</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.6760999999999999</v>
       </c>
       <c r="E44" t="s">
         <v>282</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9966,16 +10130,17 @@
         <v>2025</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <f>D44*1.0082^(B45-B44)</f>
+        <v>4.7531024609639996</v>
       </c>
       <c r="E45" t="s">
         <v>282</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9986,16 +10151,17 @@
         <v>2030</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <f>D45*1.0082^(B46-B45)</f>
+        <v>4.9512019626695212</v>
       </c>
       <c r="E46" t="s">
         <v>282</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -10006,16 +10172,17 @@
         <v>2035</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <f t="shared" ref="D47:D50" si="2">D46*1.0082^(B47-B46)</f>
+        <v>5.1575578427927757</v>
       </c>
       <c r="E47" t="s">
         <v>282</v>
       </c>
       <c r="F47" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10026,16 +10193,17 @@
         <v>2040</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.3725142101477168</v>
       </c>
       <c r="E48" t="s">
         <v>282</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10046,16 +10214,17 @@
         <v>2045</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.5964295152935355</v>
       </c>
       <c r="E49" t="s">
         <v>282</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10066,16 +10235,17 @@
         <v>2050</v>
       </c>
       <c r="C50" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.8296771482690026</v>
       </c>
       <c r="E50" t="s">
         <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -10090,7 +10260,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10125,10 +10295,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A9" sqref="A9:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10299,6 +10469,153 @@
         <v>126</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9">
+        <f>521.092380734395*0.125</f>
+        <v>65.136547591799371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10">
+        <f>0.125*523.765108258534</f>
+        <v>65.470638532316755</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>2030</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11">
+        <f>0.125*538.34157772492</f>
+        <v>67.292697215614993</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>2035</v>
+      </c>
+      <c r="C12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12">
+        <f>0.125*567.850454710087</f>
+        <v>70.981306838760872</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <v>2040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13">
+        <f>0.125*597.03498893503</f>
+        <v>74.629373616878752</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14">
+        <v>2045</v>
+      </c>
+      <c r="C14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14">
+        <f>0.125*624.264150183609</f>
+        <v>78.033018772951124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>2050</v>
+      </c>
+      <c r="C15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15">
+        <f>0.125*653.043332059524</f>
+        <v>81.630416507440501</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10308,10 +10625,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEEE4BE-FD88-49A2-A041-525121977217}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10869,7 +11186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>277</v>
       </c>
@@ -10886,7 +11203,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>277</v>
       </c>
@@ -10903,7 +11220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -10920,7 +11237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -10937,7 +11254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -10954,7 +11271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>278</v>
       </c>
@@ -10971,7 +11288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>278</v>
       </c>
@@ -10988,7 +11305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -11005,7 +11322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>278</v>
       </c>
@@ -11022,7 +11339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -11039,7 +11356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>278</v>
       </c>
@@ -11054,6 +11371,153 @@
       </c>
       <c r="E43" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44">
+        <f>521.092380734395*0.125</f>
+        <v>65.136547591799371</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>2025</v>
+      </c>
+      <c r="C45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45">
+        <f>0.125*523.765108258534*0.98</f>
+        <v>64.161225761670423</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46">
+        <v>2030</v>
+      </c>
+      <c r="C46" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46">
+        <f>0.125*538.34157772492*0.93</f>
+        <v>62.58220841052195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47">
+        <v>2035</v>
+      </c>
+      <c r="C47" t="s">
+        <v>358</v>
+      </c>
+      <c r="D47">
+        <f>0.125*567.850454710087*0.88</f>
+        <v>62.463550018109565</v>
+      </c>
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48">
+        <v>2040</v>
+      </c>
+      <c r="C48" t="s">
+        <v>358</v>
+      </c>
+      <c r="D48">
+        <f>0.125*597.03498893503*0.83</f>
+        <v>61.942380102009359</v>
+      </c>
+      <c r="E48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49">
+        <v>2045</v>
+      </c>
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49">
+        <f>0.125*624.264150183609*0.78</f>
+        <v>60.865754642901877</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50">
+        <v>2050</v>
+      </c>
+      <c r="C50" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50">
+        <f>0.125*653.043332059524*0.73</f>
+        <v>59.590204050431566</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -11066,7 +11530,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="B22:E37"/>
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11097,24 +11561,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E06B6E-6CDB-4D8C-BC34-6B8026E57C73}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345D6D4-C1C5-41B3-9FA9-983E075A149F}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11169,13 +11621,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11312,13 +11764,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11345,90 +11797,101 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -11438,10 +11901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B94D054-32A6-4BDE-98D7-472A0F6D7282}">
-  <dimension ref="A1:AL105"/>
+  <dimension ref="A1:AL104"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="E58:G60"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -11708,7 +12171,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H3" s="35">
         <v>9.6251902779803084E-2</v>
@@ -12746,7 +13209,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H12" s="43">
         <v>0.12549199999999999</v>
@@ -12862,7 +13325,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H13" s="43">
         <v>8.6045161319189351E-2</v>
@@ -13797,7 +14260,7 @@
         <v>204</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>14</v>
@@ -15437,7 +15900,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H35" s="35">
         <v>0.11778563015312131</v>
@@ -15553,7 +16016,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H36" s="35">
         <v>0.11778563015312131</v>
@@ -15669,7 +16132,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H37" s="35">
         <v>0.11778563015312131</v>
@@ -15773,7 +16236,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>296</v>
@@ -16704,7 +17167,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H46" s="4">
         <v>0.15723270440251572</v>
@@ -16820,7 +17283,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H47" s="4">
         <v>0.15723270440251572</v>
@@ -16936,7 +17399,7 @@
         <v>19</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H48" s="4">
         <v>0.15723270440251572</v>
@@ -17052,7 +17515,7 @@
         <v>19</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H49" s="4">
         <v>0.10288065843621398</v>
@@ -17168,7 +17631,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H50" s="4">
         <v>0.10288065843621398</v>
@@ -17284,7 +17747,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H51" s="4">
         <v>0.10288065843621398</v>
@@ -18096,7 +18559,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H58" s="4">
         <v>0.16129032258064516</v>
@@ -18212,7 +18675,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H59" s="4">
         <v>0.16129032258064516</v>
@@ -18328,7 +18791,7 @@
         <v>19</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H60" s="4">
         <v>0.16129032258064516</v>
@@ -18827,7 +19290,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>295</v>
@@ -19509,7 +19972,7 @@
         <v>149</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>147</v>
@@ -19623,7 +20086,7 @@
         <v>172</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>16</v>
@@ -19736,7 +20199,7 @@
         <v>144</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>19</v>
@@ -19849,7 +20312,7 @@
         <v>173</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>21</v>
@@ -19962,7 +20425,7 @@
         <v>174</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>25</v>
@@ -20553,16 +21016,16 @@
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>297</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H79" s="22">
         <v>1</v>
@@ -20658,117 +21121,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38" s="24" customFormat="1">
+    <row r="80" spans="1:38">
       <c r="A80" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="22">
-        <v>1</v>
-      </c>
-      <c r="I80" s="22">
-        <v>1</v>
-      </c>
-      <c r="J80" s="22">
-        <v>1</v>
-      </c>
-      <c r="K80" s="22">
-        <v>1</v>
-      </c>
-      <c r="L80" s="22">
-        <v>1</v>
-      </c>
-      <c r="M80" s="22">
-        <v>1</v>
-      </c>
-      <c r="N80" s="22">
-        <v>1</v>
-      </c>
-      <c r="O80" s="22">
-        <v>1</v>
-      </c>
-      <c r="P80" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="22">
-        <v>1</v>
-      </c>
-      <c r="R80" s="22">
-        <v>1</v>
-      </c>
-      <c r="S80" s="22">
-        <v>1</v>
-      </c>
-      <c r="T80" s="22">
-        <v>1</v>
-      </c>
-      <c r="U80" s="22">
-        <v>1</v>
-      </c>
-      <c r="V80" s="22">
-        <v>1</v>
-      </c>
-      <c r="W80" s="22">
-        <v>1</v>
-      </c>
-      <c r="X80" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y80" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AK80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL80" s="22">
+      <c r="C80" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>1</v>
+      </c>
+      <c r="R80" s="4">
+        <v>1</v>
+      </c>
+      <c r="S80" s="4">
+        <v>1</v>
+      </c>
+      <c r="T80" s="4">
+        <v>1</v>
+      </c>
+      <c r="U80" s="4">
+        <v>1</v>
+      </c>
+      <c r="V80" s="4">
+        <v>1</v>
+      </c>
+      <c r="W80" s="4">
+        <v>1</v>
+      </c>
+      <c r="X80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK80" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL80" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20780,16 +21245,16 @@
         <v>6</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>14</v>
@@ -20896,16 +21361,16 @@
         <v>6</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>14</v>
@@ -21012,16 +21477,16 @@
         <v>6</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>14</v>
@@ -21128,16 +21593,16 @@
         <v>6</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>14</v>
@@ -21244,16 +21709,16 @@
         <v>6</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>327</v>
+        <v>346</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>14</v>
@@ -21360,16 +21825,16 @@
         <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>14</v>
@@ -21476,112 +21941,112 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>347</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="T87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AF87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AI87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AJ87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AL87" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -21592,16 +22057,16 @@
         <v>6</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>14</v>
@@ -21708,16 +22173,16 @@
         <v>6</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>14</v>
@@ -21824,16 +22289,16 @@
         <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>14</v>
@@ -21940,16 +22405,16 @@
         <v>6</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>14</v>
@@ -22056,112 +22521,112 @@
         <v>6</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E92" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>327</v>
+        <v>349</v>
+      </c>
+      <c r="F92" s="42" t="s">
+        <v>310</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="S92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="T92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="U92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="V92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="W92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AC92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AE92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AF92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AG92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AI92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AJ92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AK92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AL92" s="4">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="93" spans="1:38">
@@ -22172,16 +22637,16 @@
         <v>6</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E93" s="41" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>14</v>
@@ -22281,120 +22746,233 @@
       </c>
     </row>
     <row r="94" spans="1:38">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E94" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="F94" s="42" t="s">
-        <v>318</v>
+        <v>355</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1</v>
+      </c>
+      <c r="N94" s="4">
+        <v>1</v>
+      </c>
+      <c r="O94" s="4">
+        <v>1</v>
+      </c>
+      <c r="P94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>1</v>
+      </c>
+      <c r="R94" s="4">
+        <v>1</v>
+      </c>
+      <c r="S94" s="4">
+        <v>1</v>
+      </c>
+      <c r="T94" s="4">
+        <v>1</v>
+      </c>
+      <c r="U94" s="4">
+        <v>1</v>
+      </c>
+      <c r="V94" s="4">
+        <v>1</v>
+      </c>
+      <c r="W94" s="4">
+        <v>1</v>
+      </c>
+      <c r="X94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK94" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38">
+      <c r="A95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="L94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="M94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="N94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="O94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="P94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Q94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="R94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="S94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="T94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="U94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="V94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="W94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="X94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Y94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Z94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AA94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AB94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AC94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AD94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AE94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AF94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AG94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AH94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AI94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AJ94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AK94" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AL94" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="H95" s="4">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1</v>
+      </c>
+      <c r="M95" s="4">
+        <v>1</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+      <c r="P95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>1</v>
+      </c>
+      <c r="R95" s="4">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4">
+        <v>1</v>
+      </c>
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+      <c r="U95" s="4">
+        <v>1</v>
+      </c>
+      <c r="V95" s="4">
+        <v>1</v>
+      </c>
+      <c r="W95" s="4">
+        <v>1</v>
+      </c>
+      <c r="X95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" ht="15">
+      <c r="D98"/>
     </row>
     <row r="99" spans="4:4" ht="15">
       <c r="D99"/>
@@ -22413,9 +22991,6 @@
     </row>
     <row r="104" spans="4:4" ht="15">
       <c r="D104"/>
-    </row>
-    <row r="105" spans="4:4" ht="15">
-      <c r="D105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22426,10 +23001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8BE285-5D8E-4DFA-BA36-7C02503E1408}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -22456,7 +23031,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>65</v>
@@ -22476,7 +23051,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E2" s="32">
         <v>0</v>
@@ -22488,13 +23063,13 @@
         <v>162</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E3" s="44">
         <f>214.126547670066</f>
@@ -22515,7 +23090,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E4" s="32">
         <v>0</v>
@@ -22533,7 +23108,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E5" s="32">
         <v>229.79396321542464</v>
@@ -22553,7 +23128,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E6" s="32">
         <v>229.79396321542464</v>
@@ -22573,7 +23148,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E7" s="32">
         <v>229.79396321542464</v>
@@ -22593,7 +23168,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E8" s="32">
         <v>0</v>
@@ -22611,7 +23186,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E9" s="32">
         <v>0</v>
@@ -22623,13 +23198,13 @@
         <v>180</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E10" s="44">
         <f>119.417644969154</f>
@@ -22644,13 +23219,13 @@
         <v>185</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E11" s="44">
         <f t="shared" ref="E11:E12" si="0">119.417644969154</f>
@@ -22671,7 +23246,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E12" s="32">
         <f t="shared" si="0"/>
@@ -22692,7 +23267,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E13" s="32">
         <v>0</v>
@@ -22710,7 +23285,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E14" s="32">
         <v>0</v>
@@ -22728,7 +23303,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E15" s="32">
         <v>0</v>
@@ -22746,7 +23321,7 @@
         <v>66</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E16" s="32">
         <v>-171.73</v>
@@ -22766,7 +23341,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E17" s="32">
         <v>-171.73</v>
@@ -22786,7 +23361,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E18" s="32">
         <v>0</v>
@@ -22804,7 +23379,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E19" s="32">
         <f>202.32*0.05</f>
@@ -22825,7 +23400,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E20" s="32">
         <f>202.32*0.95</f>
@@ -22846,7 +23421,7 @@
         <v>66</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E21" s="32">
         <f>202.32*0.01</f>
@@ -22867,7 +23442,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E22" s="32">
         <f>202.32*0.99</f>
@@ -22882,13 +23457,13 @@
         <v>167</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E23" s="44">
         <f>202.32</f>
@@ -22909,7 +23484,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E24" s="32">
         <f>118.6*0.05</f>
@@ -22930,7 +23505,7 @@
         <v>66</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E25" s="32">
         <f>118.6*0.95</f>
@@ -22951,7 +23526,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E26" s="32">
         <f>118.6*0.03</f>
@@ -22972,7 +23547,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E27" s="32">
         <f>118.6*0.97</f>
@@ -22987,13 +23562,13 @@
         <v>183</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E28" s="44">
         <f>118.6</f>
@@ -23008,13 +23583,13 @@
         <v>184</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E29" s="44">
         <f>118.6</f>
@@ -23035,7 +23610,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E30" s="32">
         <f>118.6*0.05</f>
@@ -23056,7 +23631,7 @@
         <v>66</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E31" s="32">
         <f>118.6*0.95</f>
@@ -23077,7 +23652,7 @@
         <v>66</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E32" s="32">
         <f>118.6*0.03</f>
@@ -23098,7 +23673,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E33" s="32">
         <f>118.6*0.97</f>
@@ -23113,13 +23688,13 @@
         <v>188</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E34" s="44">
         <f>118.6</f>
@@ -23140,7 +23715,7 @@
         <v>153</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E35" s="32">
         <v>-1</v>
@@ -23160,13 +23735,13 @@
         <v>153</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E36" s="32">
         <v>-1</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75">
@@ -23180,455 +23755,476 @@
         <v>153</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="4" t="s">
-        <v>298</v>
+    <row r="38" spans="1:6" s="22" customFormat="1" ht="12.75">
+      <c r="A38" s="46" t="s">
+        <v>344</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="E38" s="32">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>302</v>
+      <c r="D38" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="46">
+        <v>1</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A39" s="46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E39" s="46">
         <v>1</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A40" s="46" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E40" s="46">
         <v>1</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A41" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E41" s="46">
         <v>1</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A42" s="46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E42" s="46">
         <v>1</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A43" s="46" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E43" s="46">
         <v>1</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="22" customFormat="1" ht="12.75">
       <c r="A44" s="46" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E44" s="46">
         <v>1</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="22" customFormat="1" ht="12.75">
-      <c r="A45" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="B45" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="50" customFormat="1" ht="12.75">
+      <c r="A45" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="46">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="E45" s="49">
+        <v>0.05</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A46" s="49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E46" s="49">
         <v>0.05</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A47" s="49" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B47" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" s="49">
         <v>0.05</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A48" s="49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" s="49">
         <v>0.05</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A49" s="49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B49" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E49" s="49">
         <v>0.05</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A50" s="49" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="B50" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E50" s="49">
         <v>0.05</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="50" customFormat="1" ht="12.75">
       <c r="A51" s="49" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B51" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E51" s="49">
         <v>0.05</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="50" customFormat="1" ht="12.75">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A52" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="B52" s="49" t="s">
-        <v>141</v>
+        <v>347</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="49">
-        <v>0.05</v>
+        <v>180</v>
+      </c>
+      <c r="E52" s="47">
+        <v>0.95</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A53" s="49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E53" s="47">
         <v>0.95</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A54" s="49" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E54" s="47">
         <v>0.95</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A55" s="49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B55" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55" s="47">
         <v>0.95</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A56" s="49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E56" s="47">
         <v>0.95</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A57" s="49" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="B57" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E57" s="47">
         <v>0.95</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="48" customFormat="1" ht="12.75">
       <c r="A58" s="49" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B58" s="47" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E58" s="47">
         <v>0.95</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="48" customFormat="1" ht="12.75">
-      <c r="A59" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="47">
-        <v>0.95</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75">
+      <c r="A59" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E59" s="32">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75">
+      <c r="A60" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="32">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -51676,7 +52272,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -52101,16 +52697,16 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>296</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G2" s="28">
         <v>0.154</v>
@@ -52214,16 +52810,16 @@
         <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>296</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G3" s="28">
         <v>0.153</v>
@@ -52327,16 +52923,16 @@
         <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>296</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G4" s="28">
         <v>0.152</v>
@@ -52440,16 +53036,16 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>295</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G5" s="26">
         <v>0.15</v>
@@ -52553,16 +53149,16 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>295</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G6" s="26">
         <v>0.15</v>
@@ -52666,16 +53262,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>295</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G7" s="26">
         <v>0.15</v>
@@ -52779,16 +53375,16 @@
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G8" s="26">
         <v>0.24</v>
@@ -52892,16 +53488,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G9" s="26">
         <v>0.23</v>
@@ -53005,16 +53601,16 @@
         <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G10" s="26">
         <v>0.23</v>
@@ -53124,10 +53720,10 @@
         <v>195</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G11" s="4">
         <v>0.215</v>
@@ -55891,7 +56487,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -55911,7 +56507,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -55931,7 +56527,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="46" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>19</v>
@@ -55951,7 +56547,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
@@ -55971,7 +56567,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="46" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
@@ -55991,7 +56587,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="46" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>16</v>
@@ -56011,7 +56607,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="46" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>16</v>
@@ -56031,7 +56627,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="49" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
@@ -56051,7 +56647,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="49" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>19</v>
@@ -56071,7 +56667,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="49" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>19</v>
@@ -56091,7 +56687,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="49" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>19</v>
@@ -56111,7 +56707,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>19</v>
@@ -56131,7 +56727,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>16</v>
@@ -56151,7 +56747,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>16</v>

--- a/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
+++ b/CreateDB_NC/InputData/ExcelUserData/UserDataPart2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateDB_NC\InputData\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B53CBF-4F92-4C77-8AED-E840465149F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C3390-26EB-4F28-ACA1-CC9FF2A6F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="849" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15435" tabRatio="849" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodity_labels" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="365">
   <si>
     <t>p</t>
   </si>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>10.25% of Demand from EIA NC Summary Statistics - At Least 50% of this value</t>
+  </si>
+  <si>
+    <t>Duke Say it plans to exit coal by 2035</t>
+  </si>
+  <si>
+    <t>Duke Says it plans to exit coal by 2035</t>
   </si>
 </sst>
 </file>
@@ -10295,10 +10301,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C981D50-80F8-4166-95FD-5AC25F26EC3C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10616,6 +10622,86 @@
         <v>352</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16">
+        <v>2035</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17">
+        <v>2040</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18">
+        <v>2045</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19">
+        <v>2050</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10627,8 +10713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEEE4BE-FD88-49A2-A041-525121977217}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y46" sqref="Y46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
